--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
@@ -682,6 +682,30 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,31 +718,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,43 +1060,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1141,58 +1141,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1217,23 +1217,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1606,7 +1606,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2924,6 +2924,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2935,13 +2942,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2985,43 +2985,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3066,58 +3066,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3142,23 +3142,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3215,7 +3215,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3391,7 +3391,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4709,13 +4709,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4727,6 +4720,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Nạp lại FW module Sim</t>
+  </si>
+  <si>
+    <t>LE.2.00.---23.200212</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,9 +685,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,20 +724,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,43 +1066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1141,58 +1147,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1217,23 +1223,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1295,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1348,7 +1354,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1409,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1466,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1523,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1527,12 +1533,20 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="67">
+        <v>44336</v>
+      </c>
       <c r="C11" s="67"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183034808001</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="51"/>
       <c r="J11" s="40"/>
@@ -1546,7 +1560,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1556,17 +1570,31 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="67">
+        <v>44336</v>
+      </c>
       <c r="C12" s="67"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183033833174</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="M12" s="40"/>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
@@ -1575,7 +1603,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1587,12 +1615,20 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="67">
+        <v>44336</v>
+      </c>
       <c r="C13" s="67"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183034635680</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -1606,7 +1642,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1616,14 +1652,24 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="67">
+        <v>44336</v>
+      </c>
       <c r="C14" s="67"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183038517418</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1635,7 +1681,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1645,16 +1691,28 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="67">
+        <v>44336</v>
+      </c>
       <c r="C15" s="67"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183038613753</v>
+      </c>
+      <c r="F15" s="85"/>
+      <c r="G15" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="1"/>
@@ -1664,7 +1722,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1751,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2924,13 +2982,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2942,6 +2993,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2985,43 +3043,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3066,58 +3124,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3142,23 +3200,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3242,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3215,7 +3273,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3244,7 +3302,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3273,7 +3331,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3302,7 +3360,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3389,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3418,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3391,7 +3449,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3420,7 +3478,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3449,7 +3507,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3478,7 +3536,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4709,6 +4767,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4720,13 +4785,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>LE.2.00.---23.200212</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -685,6 +691,33 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,35 +730,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,43 +1072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1147,58 +1153,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1223,23 +1229,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1301,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1354,7 +1360,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1415,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1523,7 +1529,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1543,24 +1549,28 @@
       <c r="E11" s="39">
         <v>868183034808001</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
+      <c r="L11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1590,7 @@
       <c r="E12" s="39">
         <v>868183033833174</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="38" t="s">
         <v>61</v>
       </c>
@@ -1595,15 +1605,25 @@
       <c r="L12" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1625,15 +1645,19 @@
       <c r="E13" s="39">
         <v>868183034635680</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
@@ -1642,7 +1666,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1686,7 @@
       <c r="E14" s="39">
         <v>868183038517418</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="38" t="s">
         <v>61</v>
       </c>
@@ -1672,7 +1696,9 @@
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="M14" s="40"/>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
@@ -1681,7 +1707,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1701,7 +1727,7 @@
       <c r="E15" s="39">
         <v>868183038613753</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="38" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1748,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1744,14 +1770,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O16" s="40"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1898,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2339,7 +2367,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2403,7 +2431,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2982,6 +3010,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2993,13 +3028,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3043,43 +3071,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3124,58 +3152,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3200,23 +3228,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3242,7 +3270,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3273,7 +3301,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3302,7 +3330,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3359,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3360,7 +3388,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3389,7 +3417,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3418,7 +3446,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3449,7 +3477,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3478,7 +3506,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3535,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3536,7 +3564,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4767,13 +4795,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4785,6 +4806,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_Vietcom.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,9 +565,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,9 +595,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,12 +619,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,9 +649,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,21 +686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,21 +994,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="58" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1039,46 +1027,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1096,14 +1084,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1120,7 +1108,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -1140,16 +1128,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="73" t="s">
@@ -1158,7 +1146,7 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -1168,52 +1156,52 @@
       <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="73"/>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
-      <c r="S5" s="85"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="27"/>
       <c r="U5" s="73"/>
       <c r="V5" s="73"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1231,12 +1219,12 @@
       <c r="E6" s="39">
         <v>868183034808001</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="1"/>
@@ -1247,7 +1235,7 @@
       <c r="M6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>68</v>
       </c>
@@ -1261,14 +1249,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="81" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1286,12 +1274,12 @@
       <c r="E7" s="39">
         <v>868183033833174</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="1"/>
@@ -1302,7 +1290,7 @@
       <c r="M7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>68</v>
       </c>
@@ -1316,12 +1304,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="82"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1344,18 +1332,18 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="40" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
         <v>68</v>
       </c>
@@ -1369,12 +1357,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="82"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1392,12 +1380,12 @@
       <c r="E9" s="39">
         <v>868183038517418</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="1"/>
@@ -1408,7 +1396,7 @@
       <c r="M9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40" t="s">
         <v>68</v>
       </c>
@@ -1422,12 +1410,12 @@
         <v>24</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1445,12 +1433,12 @@
       <c r="E10" s="39">
         <v>868183038613753</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="1"/>
@@ -1461,7 +1449,7 @@
       <c r="M10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40" t="s">
         <v>68</v>
       </c>
@@ -1475,25 +1463,25 @@
         <v>24</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="82"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1504,25 +1492,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="82"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1533,27 +1521,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="81" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1564,25 +1552,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="82"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1593,25 +1581,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="82"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1623,24 +1611,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1652,24 +1640,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1681,22 +1669,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1716,14 +1704,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1735,26 +1723,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1779,14 +1767,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1811,14 +1799,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1843,14 +1831,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1870,14 +1858,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1897,14 +1885,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1916,26 +1904,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1960,14 +1948,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1992,14 +1980,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2024,14 +2012,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2056,14 +2044,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2088,14 +2076,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2120,14 +2108,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2152,14 +2140,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2184,14 +2172,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2216,14 +2204,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2248,14 +2236,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2280,14 +2268,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2312,14 +2300,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2339,14 +2327,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2366,14 +2354,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="55"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2398,14 +2386,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="55"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2430,14 +2418,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2457,14 +2445,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2484,14 +2472,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2520,14 +2508,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="55"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2559,14 +2547,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="55"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2598,14 +2586,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="55"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2637,14 +2625,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="55"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2679,14 +2667,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="55"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2698,23 +2686,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2723,26 +2711,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="55"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2754,23 +2742,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="57"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2782,23 +2770,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2810,23 +2798,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2838,23 +2826,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2866,9 +2854,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2883,13 +2871,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2901,6 +2882,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2911,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2944,43 +2932,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3025,7 +3013,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -3045,16 +3033,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="73" t="s">
@@ -3063,7 +3051,7 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -3073,199 +3061,319 @@
       <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="73"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
-      <c r="S5" s="85"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="27"/>
       <c r="U5" s="73"/>
       <c r="V5" s="73"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44340</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034808001</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="81" t="s">
+      <c r="T6" s="43"/>
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44340</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183033833174</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="82"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44340</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034635680</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="82"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44340</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038517418</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="L9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="82"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44336</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44340</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183038613753</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="L10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="82"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3278,23 +3386,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="82"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3318,14 +3426,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="81" t="s">
+      <c r="T12" s="43"/>
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3349,12 +3457,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="82"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3378,12 +3486,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="82"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3408,11 +3516,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="43"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3437,11 +3545,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="43"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3466,9 +3574,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="43"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="43"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3520,13 +3628,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="44" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3556,7 +3664,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3701,13 +3809,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="44" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4025,7 +4133,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4089,7 +4197,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4483,9 +4591,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4494,10 +4602,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -4508,12 +4616,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4539,9 +4647,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4567,9 +4675,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,9 +4703,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,9 +4731,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,9 +4759,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,6 +4776,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4679,13 +4794,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
